--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_31.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_31.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yosuke Yoshida</t>
+          <t>Yumiko Yamazaki</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
